--- a/英语A+/第1次作业/2021秋季学期版小组成员任务量明细_第5组.xlsx
+++ b/英语A+/第1次作业/2021秋季学期版小组成员任务量明细_第5组.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\研一上\英语A+\第1次作业\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\a研一上\英语a+\第1次作业\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CC66569-C4E6-4CBC-858E-DB7C7B656822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54192569-61C1-43F7-9999-DEBD330998C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>组员</t>
   </si>
@@ -91,6 +91,13 @@
 陆一鸣：第9、10、11、12句同义改写与总结，合并并修改格式
 李新宇：第5、6、7、8句同义改写与总结
 吕南方：第1、2、3、4句同义改写与总结</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>周强：基于人工智能的机器人在医疗中的应用，修改格式
+吕南方：基于人工智能的医疗图像处理
+陆一鸣：人工智能在医疗领域的挑战
+李新宇：人工智能在医疗领域有广泛应用，整合全文</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1494,7 +1501,7 @@
   <dimension ref="A1:IU15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B8" sqref="B8:F8"/>
     </sheetView>
   </sheetViews>
@@ -1589,7 +1596,9 @@
       <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B8" s="14" t="s">
+        <v>13</v>
+      </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
